--- a/data/trans_dic/P55$privada-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Dificultad-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02199187642732862</v>
+        <v>0.02229194931146412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0708004203099227</v>
+        <v>0.06905139089913695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09193892046042547</v>
+        <v>0.1016339620754749</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1072824532833914</v>
+        <v>0.1069330065006097</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06376333112750364</v>
+        <v>0.06430059248572617</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07076194985151209</v>
+        <v>0.06797000422314373</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1155029732930258</v>
+        <v>0.1205692669778079</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09263723985128111</v>
+        <v>0.09149654886072853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06333372172681624</v>
+        <v>0.06380642050754735</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08358137413401603</v>
+        <v>0.08527026881547639</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1309488597809128</v>
+        <v>0.1298774447795835</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1609110714170428</v>
+        <v>0.1393538314498207</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2012529626079776</v>
+        <v>0.2058621597322825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2877622027054426</v>
+        <v>0.2939142045517579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3752014517776409</v>
+        <v>0.4072994412131498</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2433827667988181</v>
+        <v>0.2459894975883434</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2035012615041919</v>
+        <v>0.1865226710011676</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.213332732053573</v>
+        <v>0.2062496734966993</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2411754518465979</v>
+        <v>0.2414212263542646</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1984460509876169</v>
+        <v>0.2011564182196288</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1656020023277273</v>
+        <v>0.1698801949705813</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2019941561519509</v>
+        <v>0.2006954123366324</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2476068116543187</v>
+        <v>0.2435704717106916</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1220856737936196</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1570359804205881</v>
+        <v>0.157035980420588</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08372598346780985</v>
+        <v>0.08547215721788452</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03920051099957728</v>
+        <v>0.04711844407817452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02678809314423059</v>
+        <v>0.02698166489271334</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0716561900607925</v>
+        <v>0.07498825451451231</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09200714912311622</v>
+        <v>0.09051356900217489</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06769401327301863</v>
+        <v>0.07099202436835778</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06009385342382161</v>
+        <v>0.05802727525272808</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1161612144491833</v>
+        <v>0.1157984830407614</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1164413821364324</v>
+        <v>0.1169343257138631</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07787047020561727</v>
+        <v>0.07343299189080431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06390685177499859</v>
+        <v>0.0653278515652294</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1164680961271296</v>
+        <v>0.1146510083588048</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2938434676779875</v>
+        <v>0.2850574035827176</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.263872920555649</v>
+        <v>0.2530236538801328</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2565957761671967</v>
+        <v>0.241983688482436</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2178352423759691</v>
+        <v>0.2351631334007723</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3020506506329274</v>
+        <v>0.2940655036675663</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2109850799490176</v>
+        <v>0.2139982207353486</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2742593977078108</v>
+        <v>0.2463431195014464</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2260445310162721</v>
+        <v>0.2244806249438665</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2620536463904356</v>
+        <v>0.2544444534768942</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1971310414844191</v>
+        <v>0.1902664394693104</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2171101896876484</v>
+        <v>0.2130523965170926</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2039570742113345</v>
+        <v>0.2068858744497019</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1991233594117081</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1479285211017144</v>
+        <v>0.1479285211017143</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2268851954700815</v>
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09136576793843219</v>
+        <v>0.08120428174783967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05388621374076231</v>
+        <v>0.05385547572334209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1135207432973051</v>
+        <v>0.1129599323822623</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1899734252112932</v>
+        <v>0.1837800171008399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1336410594529686</v>
+        <v>0.1406955407386511</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09733834500902311</v>
+        <v>0.1048536686113302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09847460167518164</v>
+        <v>0.09882209037918074</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1308150188694903</v>
+        <v>0.1207815192640244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1506319994418509</v>
+        <v>0.1427731650913555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1071272213482543</v>
+        <v>0.1133470567092774</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1165833766092474</v>
+        <v>0.1184237744818259</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1957774211139748</v>
+        <v>0.2142054566649469</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3446991929951135</v>
+        <v>0.3458302644405811</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3138108400234003</v>
+        <v>0.3132945006434674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3200453442055883</v>
+        <v>0.3233243658148006</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4927014901343273</v>
+        <v>0.5013844163463165</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3899924532804275</v>
+        <v>0.3967683541581193</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3444609601013196</v>
+        <v>0.3286133313645474</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2158785463099119</v>
+        <v>0.2173508067257513</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3534110660390462</v>
+        <v>0.3438072173976418</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3347672448094699</v>
+        <v>0.3306818698247215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2873438086924432</v>
+        <v>0.2906682492850164</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.222957063000894</v>
+        <v>0.2203269496678995</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2519682248388625</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1978214486065948</v>
+        <v>0.1978214486065949</v>
       </c>
     </row>
     <row r="14">
@@ -1122,34 +1122,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05154583487751731</v>
+        <v>0.05150583456322219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05981052140031572</v>
+        <v>0.06846339537889169</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1721494360738003</v>
+        <v>0.1792676775667591</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.142196670201048</v>
+        <v>0.1655303562392551</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1290978025782022</v>
+        <v>0.1301147821416127</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1757933263428556</v>
+        <v>0.178127638113449</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1421465892338849</v>
+        <v>0.1415648638048961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1284138456255249</v>
+        <v>0.1337149277184617</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1300646127529129</v>
+        <v>0.1284820180084356</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1423592298698253</v>
+        <v>0.1374673468326111</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5273545798048576</v>
+        <v>0.432406465874352</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4620671556441385</v>
+        <v>0.4056935284150548</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4185217236605661</v>
+        <v>0.4244039446410237</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2233603192907774</v>
+        <v>0.233639429628978</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7439593856546537</v>
+        <v>0.7465421220440119</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5308403973624701</v>
+        <v>0.558214268725304</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5437769849321715</v>
+        <v>0.4997031649864633</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3588078017198578</v>
+        <v>0.3664762925328487</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5230863684228001</v>
+        <v>0.5398017132549331</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4183923222828071</v>
+        <v>0.4287619738147593</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4139010087776314</v>
+        <v>0.398103908254535</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2771459196821792</v>
+        <v>0.2730981851432743</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1560185529344521</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1730522683210639</v>
+        <v>0.173052268321064</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05771596208685408</v>
+        <v>0.05776785892581318</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07909201777495799</v>
+        <v>0.08120880698911051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09655370477604701</v>
+        <v>0.09901517937474597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1179048096606617</v>
+        <v>0.1172264300693057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1651915716566121</v>
+        <v>0.1700197804105668</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1260079267343595</v>
+        <v>0.1268312928673155</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1125775029633722</v>
+        <v>0.116626549511962</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1489425257595486</v>
+        <v>0.1501148268646549</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1428151257981295</v>
+        <v>0.1401972221976229</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.121186708783972</v>
+        <v>0.1236182830683592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1195651839633806</v>
+        <v>0.1188891548206714</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1474692880844442</v>
+        <v>0.1489492438660399</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1647829522185819</v>
+        <v>0.1699100729142438</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.194754319500192</v>
+        <v>0.1981764804688314</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2197611608467834</v>
+        <v>0.2107317059067226</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2084969944569553</v>
+        <v>0.2155036305734323</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2817430653184887</v>
+        <v>0.2849887054911246</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2216263648513905</v>
+        <v>0.2217701303742104</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2150957015095535</v>
+        <v>0.2148730511638504</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2138680397520395</v>
+        <v>0.2122041083064597</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2240307404482213</v>
+        <v>0.2231923359897936</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1935560834572115</v>
+        <v>0.198809324942968</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1999289127346847</v>
+        <v>0.197621300208317</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.19942761201055</v>
+        <v>0.2025001658026484</v>
       </c>
     </row>
     <row r="19">
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1054</v>
+        <v>1068</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2796</v>
+        <v>2727</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2487</v>
+        <v>2749</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11946</v>
+        <v>11908</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6269</v>
+        <v>6322</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7550</v>
+        <v>7252</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9917</v>
+        <v>10352</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13937</v>
+        <v>13765</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9261</v>
+        <v>9330</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12219</v>
+        <v>12466</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14785</v>
+        <v>14664</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6290</v>
+        <v>5447</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9642</v>
+        <v>9863</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11364</v>
+        <v>11607</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10150</v>
+        <v>11018</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>27102</v>
+        <v>27392</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20008</v>
+        <v>18339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22763</v>
+        <v>22007</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20706</v>
+        <v>20727</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29856</v>
+        <v>30263</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24216</v>
+        <v>24841</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29530</v>
+        <v>29340</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27956</v>
+        <v>27501</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
+        <v>4292</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>900</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>4126</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>5365</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>6676</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <v>4205</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>1613</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>894</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>3943</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>5453</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>6366</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>4355</v>
-      </c>
       <c r="J10" s="6" t="n">
-        <v>14332</v>
+        <v>14287</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12749</v>
+        <v>12803</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10527</v>
+        <v>9927</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6763</v>
+        <v>6913</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>20779</v>
+        <v>20454</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14756</v>
+        <v>14315</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10854</v>
+        <v>10408</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8561</v>
+        <v>8074</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11987</v>
+        <v>12940</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17903</v>
+        <v>17430</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19842</v>
+        <v>20125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19874</v>
+        <v>17851</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27890</v>
+        <v>27697</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28692</v>
+        <v>27859</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26648</v>
+        <v>25720</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22976</v>
+        <v>22547</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36387</v>
+        <v>36910</v>
       </c>
     </row>
     <row r="12">
@@ -1963,37 +1963,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3661</v>
+        <v>3254</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>1575</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4152</v>
+        <v>4132</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7928</v>
+        <v>7670</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7738</v>
+        <v>8146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6203</v>
+        <v>6682</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8411</v>
+        <v>8440</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8499</v>
+        <v>7847</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14757</v>
+        <v>13987</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9959</v>
+        <v>10537</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14221</v>
+        <v>14446</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4549</v>
+        <v>4978</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13811</v>
+        <v>13856</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9175</v>
+        <v>9160</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11706</v>
+        <v>11826</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20561</v>
+        <v>20924</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22581</v>
+        <v>22973</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21951</v>
+        <v>20941</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18438</v>
+        <v>18563</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22961</v>
+        <v>22337</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>32797</v>
+        <v>32397</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26712</v>
+        <v>27021</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>27197</v>
+        <v>26876</v>
       </c>
     </row>
     <row r="16">
@@ -2146,34 +2146,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2975</v>
+        <v>3405</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2067</v>
+        <v>2153</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4004</v>
+        <v>4661</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3013</v>
+        <v>3037</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9956</v>
+        <v>10088</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3118</v>
+        <v>3105</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5665</v>
+        <v>5899</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5225</v>
+        <v>5162</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15143</v>
+        <v>14623</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5235</v>
+        <v>4292</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7374</v>
+        <v>6474</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7045</v>
+        <v>7144</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11109</v>
+        <v>11620</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8933</v>
+        <v>8964</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14946</v>
+        <v>15717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12693</v>
+        <v>11664</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20321</v>
+        <v>20756</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11474</v>
+        <v>11841</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18457</v>
+        <v>18914</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16628</v>
+        <v>15994</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29480</v>
+        <v>29050</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7069</v>
+        <v>7075</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11474</v>
+        <v>11781</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11483</v>
+        <v>11775</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>19854</v>
+        <v>19739</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>37063</v>
+        <v>38147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>35083</v>
+        <v>35313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29972</v>
+        <v>31050</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>52321</v>
+        <v>52732</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>49534</v>
+        <v>48626</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>51321</v>
+        <v>52351</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>46051</v>
+        <v>45791</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>76635</v>
+        <v>77404</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20182</v>
+        <v>20810</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28253</v>
+        <v>28749</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26135</v>
+        <v>25061</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35108</v>
+        <v>36288</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>63214</v>
+        <v>63942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>61706</v>
+        <v>61746</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>57265</v>
+        <v>57206</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>75128</v>
+        <v>74543</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>77703</v>
+        <v>77412</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>81969</v>
+        <v>84194</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>77004</v>
+        <v>76115</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>103636</v>
+        <v>105233</v>
       </c>
     </row>
     <row r="24">
